--- a/pipeline/app/load/dashboard/excel/sourcedata/q2_Trainees_Removed.xlsx
+++ b/pipeline/app/load/dashboard/excel/sourcedata/q2_Trainees_Removed.xlsx
@@ -1,27 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://testingcircle-my.sharepoint.com/personal/areman_spartaglobal_com/Documents/11 FinalProject/Data24_FinalProject/pipeline/app/load/dashboard/excel/sourcedata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelkrzyzanowski/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_4E54AFEEDFC34B4B63C0BA2420076F7390B11587" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC3EAEAA-A88B-4542-A6C5-7E1331AE8892}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817E9D82-AD58-1947-B453-6728BEC066C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3500" yWindow="4120" windowWidth="38400" windowHeight="16680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpectedSpartansPerWeek" sheetId="1" r:id="rId1"/>
     <sheet name="ActualSpartansPerWeek" sheetId="2" r:id="rId2"/>
+    <sheet name="dashboard part" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="Slicer_Week">#N/A</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
+  <pivotCaches>
+    <pivotCache cacheId="42" r:id="rId4"/>
+    <pivotCache cacheId="43" r:id="rId5"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId6"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Week</t>
   </si>
@@ -30,6 +57,24 @@
   </si>
   <si>
     <t>ActualSpartans</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of ExpectedSpartans</t>
+  </si>
+  <si>
+    <t>Sum of ActualSpartans</t>
+  </si>
+  <si>
+    <t>Sum of Sum of ExpectedSpartans</t>
+  </si>
+  <si>
+    <t>Sum of Sum of ActualSpartans</t>
   </si>
 </sst>
 </file>
@@ -88,11 +133,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -108,6 +158,3334 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[q2_Trainees_Removed.xlsx]dashboard part!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Expected vs Actual Number Of Trainees Per Week</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dashboard part'!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of ExpectedSpartans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dashboard part'!$B$20:$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dashboard part'!$C$20:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-89B2-AC49-BFB1-3D5F0B6B873B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dashboard part'!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of ActualSpartans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dashboard part'!$B$20:$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dashboard part'!$D$20:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-89B2-AC49-BFB1-3D5F0B6B873B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="825171728"/>
+        <c:axId val="824648272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="825171728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="824648272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="824648272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="825171728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[q2_Trainees_Removed.xlsx]dashboard part!PivotTable5</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Overtime</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Trainees Difference</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dashboard part'!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Sum of ActualSpartans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dashboard part'!$B$32:$B$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dashboard part'!$C$32:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-735D-D148-B29F-E8B37A006820}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dashboard part'!$D$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Sum of ExpectedSpartans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dashboard part'!$B$32:$B$40</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dashboard part'!$D$32:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-735D-D148-B29F-E8B37A006820}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="473497360"/>
+        <c:axId val="473054336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="473497360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473054336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="473054336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473497360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="cekniocnce">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F2F55C9-8BAA-CC45-8631-961325F79B52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>177801</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Week">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06518242-9C23-A44A-A152-C11B94BF59C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Week"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19100800" y="5270501"/>
+              <a:ext cx="1828800" cy="1955800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE554D0-3F61-7643-9D82-6C8554703FBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44511.620213425929" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="8" xr:uid="{8F6EADB3-E5A9-F643-952F-A3B862144983}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C9" sheet="dashboard part"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Week" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="9" count="8">
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ExpectedSpartans" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="14" count="6">
+        <n v="14"/>
+        <n v="12"/>
+        <n v="10"/>
+        <n v="6"/>
+        <n v="5"/>
+        <n v="7"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ActualSpartans" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="7" maxValue="15" count="6">
+        <n v="15"/>
+        <n v="14"/>
+        <n v="10"/>
+        <n v="9"/>
+        <n v="8"/>
+        <n v="7"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="912260069"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44511.628690046295" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="8" xr:uid="{84AF9478-5A14-8843-9F78-89C56A490B0C}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B19:D27" sheet="dashboard part"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Row Labels" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="9" count="8">
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sum of ExpectedSpartans" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="14" count="6">
+        <n v="14"/>
+        <n v="12"/>
+        <n v="10"/>
+        <n v="6"/>
+        <n v="5"/>
+        <n v="7"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sum of ActualSpartans" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="7" maxValue="15" count="6">
+        <n v="15"/>
+        <n v="14"/>
+        <n v="10"/>
+        <n v="9"/>
+        <n v="8"/>
+        <n v="7"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1762595061"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67492295-8173-FC4C-A81E-64325D1EDEB3}" name="PivotTable5" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B31:D40" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Sum of ActualSpartans" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Sum of ExpectedSpartans" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAB542F6-6F69-ED4F-84CA-B0E71B7AC354}" name="PivotTable2" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B19:D28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of ExpectedSpartans" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of ActualSpartans" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Week" xr10:uid="{EA829D91-E98D-1D45-BD98-C9AA36CEE242}" sourceName="Week">
+  <pivotTables>
+    <pivotTable tabId="4" name="PivotTable2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="912260069">
+      <items count="8">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
+        <i x="5" s="1"/>
+        <i x="6" s="1"/>
+        <i x="7" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Week" xr10:uid="{323B49F8-2761-EF48-9F98-64C5EBA9680E}" cache="Slicer_Week" caption="Week" rowHeight="230716"/>
+</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,19 +3809,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,17 +3829,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -471,19 +3900,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="B1" sqref="B1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,23 +3920,725 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6229D08D-D3D8-3646-B518-138ED5E22E36}">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="29" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>14</v>
+      </c>
+      <c r="D20" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4">
+        <v>12</v>
+      </c>
+      <c r="D21" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="3">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4">
+        <v>12</v>
+      </c>
+      <c r="D22" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="3">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4">
+        <v>10</v>
+      </c>
+      <c r="D23" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="3">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4">
+        <v>6</v>
+      </c>
+      <c r="D24" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="3">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="3">
+        <v>8</v>
+      </c>
+      <c r="C26" s="4">
+        <v>7</v>
+      </c>
+      <c r="D26" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="3">
+        <v>9</v>
+      </c>
+      <c r="C27" s="4">
+        <v>7</v>
+      </c>
+      <c r="D27" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4">
+        <v>73</v>
+      </c>
+      <c r="D28" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="3">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4">
+        <v>15</v>
+      </c>
+      <c r="D32" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="3">
+        <v>3</v>
+      </c>
+      <c r="C33" s="4">
+        <v>14</v>
+      </c>
+      <c r="D33" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="3">
+        <v>4</v>
+      </c>
+      <c r="C34" s="4">
+        <v>10</v>
+      </c>
+      <c r="D34" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="3">
+        <v>5</v>
+      </c>
+      <c r="C35" s="4">
+        <v>9</v>
+      </c>
+      <c r="D35" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="3">
+        <v>6</v>
+      </c>
+      <c r="C36" s="4">
+        <v>9</v>
+      </c>
+      <c r="D36" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="3">
+        <v>7</v>
+      </c>
+      <c r="C37" s="4">
+        <v>8</v>
+      </c>
+      <c r="D37" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="3">
+        <v>8</v>
+      </c>
+      <c r="C38" s="4">
+        <v>7</v>
+      </c>
+      <c r="D38" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="3">
+        <v>9</v>
+      </c>
+      <c r="C39" s="4">
+        <v>7</v>
+      </c>
+      <c r="D39" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="4">
+        <v>79</v>
+      </c>
+      <c r="D40" s="4">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="6292cffe-a264-48cd-a2c8-65350280a8ba" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005EB9DAFD5A3BE841A8C512EE543EFD13" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d6c4d20c3715ec357b2d0b1c18679b3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6292cffe-a264-48cd-a2c8-65350280a8ba" xmlns:ns3="91af20cc-6020-4279-8abf-0ebc48e99448" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7b3426d6349095b1800821f3addfe153" ns2:_="" ns3:_="">
+    <xsd:import namespace="6292cffe-a264-48cd-a2c8-65350280a8ba"/>
+    <xsd:import namespace="91af20cc-6020-4279-8abf-0ebc48e99448"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6292cffe-a264-48cd-a2c8-65350280a8ba" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="13" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_Flow_SignoffStatus" ma:index="18" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="91af20cc-6020-4279-8abf-0ebc48e99448" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{300FBBEE-24F7-4F02-8A0A-B9C04F62A55A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="6292cffe-a264-48cd-a2c8-65350280a8ba"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="91af20cc-6020-4279-8abf-0ebc48e99448"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01FF930D-B162-4421-824C-1007D2158EFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D268602-9996-4A2D-ADFE-0FA21D5B4A45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6292cffe-a264-48cd-a2c8-65350280a8ba"/>
+    <ds:schemaRef ds:uri="91af20cc-6020-4279-8abf-0ebc48e99448"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>